--- a/src/assets/example-file/Question.xlsx
+++ b/src/assets/example-file/Question.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Question</t>
   </si>
@@ -42,6 +42,51 @@
   </si>
   <si>
     <t>Answer</t>
+  </si>
+  <si>
+    <t>Thủ đô Pháp là gì ?</t>
+  </si>
+  <si>
+    <t>Marid</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>Ngọn núi cao nhất thế giới là gì ?</t>
+  </si>
+  <si>
+    <t>Everest</t>
+  </si>
+  <si>
+    <t>Kilimanjaro</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>Elbrus</t>
+  </si>
+  <si>
+    <t>Con sông dài nhất thế giới ?</t>
+  </si>
+  <si>
+    <t>Sông Nile</t>
+  </si>
+  <si>
+    <t>Sông Amazon</t>
+  </si>
+  <si>
+    <t>Sông Mississppi</t>
+  </si>
+  <si>
+    <t>Sông Yangtze</t>
   </si>
 </sst>
 </file>
@@ -359,15 +404,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" customWidth="1"/>
@@ -396,7 +441,68 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>